--- a/medicine/Mort/Cimetière_national_de_Corinth/Cimetière_national_de_Corinth.xlsx
+++ b/medicine/Mort/Cimetière_national_de_Corinth/Cimetière_national_de_Corinth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Corinth</t>
+          <t>Cimetière_national_de_Corinth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de Corinth est un cimetière national des États-Unis situé dans la ville de Corinth, dans le comté d'Alcorn, au Mississippi. Administré par le département des États-Unis des affaires des anciens combattants, il s'étend sur 20 acres (8,1 ha), et à la fin de 2005, contenait 7 137 inhumations. Il est géré par le cimetière national de Little Rock.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_Corinth</t>
+          <t>Cimetière_national_de_Corinth</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière national de Corinth est créé en 1866 comme un lieu d'inhumation des victimes de l'Union de la seconde bataille de Corinth, et d'autres batailles de la région. À la fin des années 1870, il y avait plus de 5 000 inhumations dans le cimetière, dont près de 4 000 sont inconnues.
 Le cimetière national de Corinth est inscrit au Registre national des lieux historiques en 1996.
